--- a/hot-deploy/partner/document/日志类型整理.xlsx
+++ b/hot-deploy/partner/document/日志类型整理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="324">
   <si>
     <t>关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -466,6 +466,721 @@
   </si>
   <si>
     <t>LOG100042</t>
+  </si>
+  <si>
+    <t>查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货核算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=stockSettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockSettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlySettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollbackSettle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反结算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=PurchaseWarehousing&amp;entryEntity=PurchaseWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=PurchaseWarehousing&amp;entryEntity=PurchaseWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=PurchaseWarehousing&amp;entryEntity=PurchaseWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=purchaseWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=purchaseBillManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseBillManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购单管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=PurchaseBill&amp;entryEntity=PurchaseBillEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=PurchaseBill&amp;entryEntity=PurchaseBillEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=PurchaseBill&amp;entryEntity=PurchaseBillEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitInspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollbackInspective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=PurchaseReturn&amp;entryEntity=PurchaseReturnEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=purchaseReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitPurchaseReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=PurchaseReturn&amp;entryEntity=PurchaseReturnEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=PurchaseReturn&amp;entryEntity=PurchaseReturnEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollbackPurchaseReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseReturn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG100043</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG100044</t>
+  </si>
+  <si>
+    <t>LOG100045</t>
+  </si>
+  <si>
+    <t>LOG100046</t>
+  </si>
+  <si>
+    <t>LOG100047</t>
+  </si>
+  <si>
+    <t>LOG100048</t>
+  </si>
+  <si>
+    <t>LOG100049</t>
+  </si>
+  <si>
+    <t>LOG100050</t>
+  </si>
+  <si>
+    <t>LOG100051</t>
+  </si>
+  <si>
+    <t>LOG100052</t>
+  </si>
+  <si>
+    <t>LOG100053</t>
+  </si>
+  <si>
+    <t>LOG100054</t>
+  </si>
+  <si>
+    <t>LOG100055</t>
+  </si>
+  <si>
+    <t>LOG100056</t>
+  </si>
+  <si>
+    <t>LOG100057</t>
+  </si>
+  <si>
+    <t>LOG100058</t>
+  </si>
+  <si>
+    <t>LOG100059</t>
+  </si>
+  <si>
+    <t>LOG100060</t>
+  </si>
+  <si>
+    <t>LOG100061</t>
+  </si>
+  <si>
+    <t>LOG100062</t>
+  </si>
+  <si>
+    <t>LOG100063</t>
+  </si>
+  <si>
+    <t>LOG100064</t>
+  </si>
+  <si>
+    <t>LOG100065</t>
+  </si>
+  <si>
+    <t>LOG100066</t>
+  </si>
+  <si>
+    <t>LOG100067</t>
+  </si>
+  <si>
+    <t>LOG100068</t>
+  </si>
+  <si>
+    <t>LOG100069</t>
+  </si>
+  <si>
+    <t>LOG100070</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=consignDrawMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=ConsignDrawMaterial&amp;entryEntity=ConsignDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=ConsignDrawMaterial&amp;entryEntity=ConsignDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=ConsignDrawMaterial&amp;entryEntity=ConsignDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitConsignDramMaterial</t>
+  </si>
+  <si>
+    <t>rollbackConsignDramMaterial</t>
+  </si>
+  <si>
+    <t>委外领料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignDrawMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=consignReturnMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=ConsignReturnMaterial&amp;entryEntity=ConsignReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=ConsignReturnMaterial&amp;entryEntity=ConsignReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=ConsignReturnMaterial&amp;entryEntity=ConsignReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitConsignReturnMaterial</t>
+  </si>
+  <si>
+    <t>rollbackConsignReturnMaterial</t>
+  </si>
+  <si>
+    <t>委外退料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignReturnMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=consignWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委外入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=ConsignWarehousing&amp;entryEntity=ConsignWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=ConsignWarehousing&amp;entryEntity=ConsignWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=ConsignWarehousing&amp;entryEntity=ConsignWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitConsignWarehousing</t>
+  </si>
+  <si>
+    <t>rollbackConsignWarehousing</t>
+  </si>
+  <si>
+    <t>LOG100071</t>
+  </si>
+  <si>
+    <t>LOG100072</t>
+  </si>
+  <si>
+    <t>LOG100073</t>
+  </si>
+  <si>
+    <t>LOG100074</t>
+  </si>
+  <si>
+    <t>LOG100075</t>
+  </si>
+  <si>
+    <t>LOG100076</t>
+  </si>
+  <si>
+    <t>LOG100077</t>
+  </si>
+  <si>
+    <t>LOG100078</t>
+  </si>
+  <si>
+    <t>委外退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG100079</t>
+  </si>
+  <si>
+    <t>LOG100080</t>
+  </si>
+  <si>
+    <t>LOG100081</t>
+  </si>
+  <si>
+    <t>LOG100082</t>
+  </si>
+  <si>
+    <t>LOG100083</t>
+  </si>
+  <si>
+    <t>LOG100084</t>
+  </si>
+  <si>
+    <t>LOG100085</t>
+  </si>
+  <si>
+    <t>LOG100086</t>
+  </si>
+  <si>
+    <t>LOG100087</t>
+  </si>
+  <si>
+    <t>LOG100088</t>
+  </si>
+  <si>
+    <t>LOG100089</t>
+  </si>
+  <si>
+    <t>LOG100090</t>
+  </si>
+  <si>
+    <t>LOG100091</t>
+  </si>
+  <si>
+    <t>LOG100092</t>
+  </si>
+  <si>
+    <t>LOG100093</t>
+  </si>
+  <si>
+    <t>LOG100094</t>
+  </si>
+  <si>
+    <t>LOG100095</t>
+  </si>
+  <si>
+    <t>LOG100096</t>
+  </si>
+  <si>
+    <t>LOG100097</t>
+  </si>
+  <si>
+    <t>LOG100098</t>
+  </si>
+  <si>
+    <t>LOG100099</t>
+  </si>
+  <si>
+    <t>LOG100100</t>
+  </si>
+  <si>
+    <t>LOG100101</t>
+  </si>
+  <si>
+    <t>LOG100102</t>
+  </si>
+  <si>
+    <t>LOG100103</t>
+  </si>
+  <si>
+    <t>LOG100104</t>
+  </si>
+  <si>
+    <t>LOG100105</t>
+  </si>
+  <si>
+    <t>LOG100106</t>
+  </si>
+  <si>
+    <t>LOG100107</t>
+  </si>
+  <si>
+    <t>LOG100108</t>
+  </si>
+  <si>
+    <t>制造领料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造退料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造入库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造退货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=consignReturnProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignReturnProduct</t>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=ConsignReturnProduct&amp;entryEntity=ConsignReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=ConsignReturnProduct&amp;entryEntity=ConsignReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=ConsignReturnProduct&amp;entryEntity=ConsignReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitConsignReturnProduct</t>
+  </si>
+  <si>
+    <t>rollbackConsignReturnProduct</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=workshopDrawMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=WorkshopDrawMaterial&amp;entryEntity=WorkshopDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=WorkshopDrawMaterial&amp;entryEntity=WorkshopDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=WorkshopDrawMaterial&amp;entryEntity=WorkshopDrawMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitWorkshopDramMaterial</t>
+  </si>
+  <si>
+    <t>rollbackWorkshopDramMaterial</t>
+  </si>
+  <si>
+    <t>workshopDrawMaterial</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=workshopReturnMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopReturnMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=WorkshopReturnMaterial&amp;entryEntity=WorkshopReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=WorkshopReturnMaterial&amp;entryEntity=WorkshopReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=WorkshopReturnMaterial&amp;entryEntity=WorkshopReturnMaterialEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitWorkshopReturnMaterial</t>
+  </si>
+  <si>
+    <t>rollbackWorkshopReturnMaterial</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=workshopWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopWarehousing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=WorkshopWarehousing&amp;entryEntity=WorkshopWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=WorkshopWarehousing&amp;entryEntity=WorkshopWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=WorkshopWarehousing&amp;entryEntity=WorkshopWarehousingEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>submitWorkshopWarehousing</t>
+  </si>
+  <si>
+    <t>rollbackWorkshopWarehousing</t>
+  </si>
+  <si>
+    <t>submitWorkshopReturnProduct</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=workshopReturnProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshopReturnProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createWithEntry?headEntity=WorkshopReturnProduct&amp;entryEntity=WorkshopReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateWithEntry?headEntity=WorkshopReturnProduct&amp;entryEntity=WorkshopReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteWithEntry?headEntity=WorkshopReturnProduct&amp;entryEntity=WorkshopReturnProductEntry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rollbackWorkshopReturnProduct</t>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=productionPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productionPlan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=stockDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=semiProductCostReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semiProductCostReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=consignProcessMatchingReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consignProcessMatchingReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=packingMaterialReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packingMaterialReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=productReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑坯材料耗用表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发外加工对数表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装包装材料表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getUserPermissions?menuId=logManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logManagement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOG100109</t>
+  </si>
+  <si>
+    <t>LOG100110</t>
+  </si>
+  <si>
+    <t>LOG100111</t>
+  </si>
+  <si>
+    <t>LOG100112</t>
+  </si>
+  <si>
+    <t>LOG100113</t>
+  </si>
+  <si>
+    <t>LOG100114</t>
+  </si>
+  <si>
+    <t>LOG100115</t>
+  </si>
+  <si>
+    <t>LOG100116</t>
+  </si>
+  <si>
+    <t>LOG100117</t>
+  </si>
+  <si>
+    <t>LOG100118</t>
+  </si>
+  <si>
+    <t>/auditPurchaseBill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/unauditPurchaseBill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,19 +1545,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="71.875" customWidth="1"/>
     <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1704,6 +2419,1526 @@
       </c>
       <c r="F43" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="s">
+        <v>135</v>
+      </c>
+      <c r="E45" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>166</v>
+      </c>
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>323</v>
+      </c>
+      <c r="F49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" t="s">
+        <v>136</v>
+      </c>
+      <c r="E52" t="s">
+        <v>134</v>
+      </c>
+      <c r="F52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>170</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>150</v>
+      </c>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C56" t="s">
+        <v>160</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="E57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>177</v>
+      </c>
+      <c r="B60" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" t="s">
+        <v>155</v>
+      </c>
+      <c r="F60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" t="s">
+        <v>158</v>
+      </c>
+      <c r="F61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" t="s">
+        <v>189</v>
+      </c>
+      <c r="F62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" t="s">
+        <v>190</v>
+      </c>
+      <c r="F63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>195</v>
+      </c>
+      <c r="C64" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+      <c r="C65" t="s">
+        <v>196</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" t="s">
+        <v>192</v>
+      </c>
+      <c r="F65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+      <c r="D66" t="s">
+        <v>151</v>
+      </c>
+      <c r="E66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D67" t="s">
+        <v>152</v>
+      </c>
+      <c r="E67" t="s">
+        <v>194</v>
+      </c>
+      <c r="F67" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>185</v>
+      </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>204</v>
+      </c>
+      <c r="D68" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" t="s">
+        <v>197</v>
+      </c>
+      <c r="F68" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>187</v>
+      </c>
+      <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
+        <v>204</v>
+      </c>
+      <c r="D70" t="s">
+        <v>136</v>
+      </c>
+      <c r="E70" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="s">
+        <v>203</v>
+      </c>
+      <c r="C72" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" t="s">
+        <v>151</v>
+      </c>
+      <c r="E72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F73" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" t="s">
+        <v>206</v>
+      </c>
+      <c r="D76" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>218</v>
+      </c>
+      <c r="B77" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" t="s">
+        <v>206</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>219</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" t="s">
+        <v>211</v>
+      </c>
+      <c r="F78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" t="s">
+        <v>152</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" t="s">
+        <v>257</v>
+      </c>
+      <c r="D80" t="s">
+        <v>122</v>
+      </c>
+      <c r="E80" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>223</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>257</v>
+      </c>
+      <c r="D81" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" t="s">
+        <v>258</v>
+      </c>
+      <c r="F81" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C82" t="s">
+        <v>257</v>
+      </c>
+      <c r="D82" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" t="s">
+        <v>259</v>
+      </c>
+      <c r="F82" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>221</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" t="s">
+        <v>260</v>
+      </c>
+      <c r="F83" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>221</v>
+      </c>
+      <c r="C84" t="s">
+        <v>257</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84" t="s">
+        <v>261</v>
+      </c>
+      <c r="F84" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B85" t="s">
+        <v>221</v>
+      </c>
+      <c r="C85" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" t="s">
+        <v>262</v>
+      </c>
+      <c r="F85" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>228</v>
+      </c>
+      <c r="B86" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D86" t="s">
+        <v>122</v>
+      </c>
+      <c r="E86" t="s">
+        <v>263</v>
+      </c>
+      <c r="F86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" t="s">
+        <v>252</v>
+      </c>
+      <c r="C88" t="s">
+        <v>269</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" t="s">
+        <v>265</v>
+      </c>
+      <c r="F88" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
+        <v>269</v>
+      </c>
+      <c r="D89" t="s">
+        <v>137</v>
+      </c>
+      <c r="E89" t="s">
+        <v>266</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" t="s">
+        <v>252</v>
+      </c>
+      <c r="C90" t="s">
+        <v>269</v>
+      </c>
+      <c r="D90" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" t="s">
+        <v>267</v>
+      </c>
+      <c r="F90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>233</v>
+      </c>
+      <c r="B91" t="s">
+        <v>252</v>
+      </c>
+      <c r="C91" t="s">
+        <v>269</v>
+      </c>
+      <c r="D91" t="s">
+        <v>152</v>
+      </c>
+      <c r="E91" t="s">
+        <v>268</v>
+      </c>
+      <c r="F91" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>234</v>
+      </c>
+      <c r="B92" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" t="s">
+        <v>271</v>
+      </c>
+      <c r="D92" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" t="s">
+        <v>270</v>
+      </c>
+      <c r="F92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" t="s">
+        <v>253</v>
+      </c>
+      <c r="C94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" t="s">
+        <v>253</v>
+      </c>
+      <c r="C95" t="s">
+        <v>271</v>
+      </c>
+      <c r="D95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" t="s">
+        <v>271</v>
+      </c>
+      <c r="D96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E96" t="s">
+        <v>275</v>
+      </c>
+      <c r="F96" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>239</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E98" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>241</v>
+      </c>
+      <c r="B99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" t="s">
+        <v>278</v>
+      </c>
+      <c r="D99" t="s">
+        <v>135</v>
+      </c>
+      <c r="E99" t="s">
+        <v>279</v>
+      </c>
+      <c r="F99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>242</v>
+      </c>
+      <c r="B100" t="s">
+        <v>254</v>
+      </c>
+      <c r="C100" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" t="s">
+        <v>278</v>
+      </c>
+      <c r="D101" t="s">
+        <v>137</v>
+      </c>
+      <c r="E101" t="s">
+        <v>281</v>
+      </c>
+      <c r="F101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>244</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102" t="s">
+        <v>278</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s">
+        <v>282</v>
+      </c>
+      <c r="F102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>245</v>
+      </c>
+      <c r="B103" t="s">
+        <v>254</v>
+      </c>
+      <c r="C103" t="s">
+        <v>278</v>
+      </c>
+      <c r="D103" t="s">
+        <v>152</v>
+      </c>
+      <c r="E103" t="s">
+        <v>283</v>
+      </c>
+      <c r="F103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>246</v>
+      </c>
+      <c r="B104" t="s">
+        <v>255</v>
+      </c>
+      <c r="C104" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" t="s">
+        <v>122</v>
+      </c>
+      <c r="E104" t="s">
+        <v>285</v>
+      </c>
+      <c r="F104" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>247</v>
+      </c>
+      <c r="B105" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" t="s">
+        <v>286</v>
+      </c>
+      <c r="D105" t="s">
+        <v>135</v>
+      </c>
+      <c r="E105" t="s">
+        <v>287</v>
+      </c>
+      <c r="F105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>248</v>
+      </c>
+      <c r="B106" t="s">
+        <v>255</v>
+      </c>
+      <c r="C106" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" t="s">
+        <v>288</v>
+      </c>
+      <c r="F106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>249</v>
+      </c>
+      <c r="B107" t="s">
+        <v>255</v>
+      </c>
+      <c r="C107" t="s">
+        <v>286</v>
+      </c>
+      <c r="D107" t="s">
+        <v>137</v>
+      </c>
+      <c r="E107" t="s">
+        <v>289</v>
+      </c>
+      <c r="F107" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" t="s">
+        <v>255</v>
+      </c>
+      <c r="C108" t="s">
+        <v>286</v>
+      </c>
+      <c r="D108" t="s">
+        <v>151</v>
+      </c>
+      <c r="E108" t="s">
+        <v>284</v>
+      </c>
+      <c r="F108" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>251</v>
+      </c>
+      <c r="B109" t="s">
+        <v>255</v>
+      </c>
+      <c r="C109" t="s">
+        <v>286</v>
+      </c>
+      <c r="D109" t="s">
+        <v>152</v>
+      </c>
+      <c r="E109" t="s">
+        <v>290</v>
+      </c>
+      <c r="F109" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" t="s">
+        <v>125</v>
+      </c>
+      <c r="D110" t="s">
+        <v>122</v>
+      </c>
+      <c r="E110" t="s">
+        <v>124</v>
+      </c>
+      <c r="F110" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>313</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>125</v>
+      </c>
+      <c r="D111" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>314</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112" t="s">
+        <v>131</v>
+      </c>
+      <c r="E112" t="s">
+        <v>130</v>
+      </c>
+      <c r="F112" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" t="s">
+        <v>293</v>
+      </c>
+      <c r="C113" t="s">
+        <v>292</v>
+      </c>
+      <c r="D113" t="s">
+        <v>122</v>
+      </c>
+      <c r="E113" t="s">
+        <v>291</v>
+      </c>
+      <c r="F113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" t="s">
+        <v>296</v>
+      </c>
+      <c r="C114" t="s">
+        <v>295</v>
+      </c>
+      <c r="D114" t="s">
+        <v>122</v>
+      </c>
+      <c r="E114" t="s">
+        <v>294</v>
+      </c>
+      <c r="F114" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>317</v>
+      </c>
+      <c r="B115" t="s">
+        <v>305</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+      <c r="D115" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" t="s">
+        <v>297</v>
+      </c>
+      <c r="F115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>318</v>
+      </c>
+      <c r="B116" t="s">
+        <v>306</v>
+      </c>
+      <c r="C116" t="s">
+        <v>300</v>
+      </c>
+      <c r="D116" t="s">
+        <v>122</v>
+      </c>
+      <c r="E116" t="s">
+        <v>299</v>
+      </c>
+      <c r="F116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>319</v>
+      </c>
+      <c r="B117" t="s">
+        <v>307</v>
+      </c>
+      <c r="C117" t="s">
+        <v>302</v>
+      </c>
+      <c r="D117" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" t="s">
+        <v>301</v>
+      </c>
+      <c r="F117" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>320</v>
+      </c>
+      <c r="B118" t="s">
+        <v>308</v>
+      </c>
+      <c r="C118" t="s">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>122</v>
+      </c>
+      <c r="E118" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" t="s">
+        <v>310</v>
+      </c>
+      <c r="D119" t="s">
+        <v>122</v>
+      </c>
+      <c r="E119" t="s">
+        <v>309</v>
+      </c>
+      <c r="F119" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +3966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
